--- a/biology/Zoologie/Ferdina/Ferdina.xlsx
+++ b/biology/Zoologie/Ferdina/Ferdina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ferdina sont un genre d'étoiles de mer de la famille des Goniasteridae. On les rencontre uniquement dans l'Océan Indien.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corps est aplati (quoique moins que chez la plupart des Goniasteridae), les bras larges, convexes et verruqueux (les plaques squelettiques forment des reliefs bien marqués), mais plats sur la face inférieure. Les épines ambulacraires sont courtes, unies en leur base[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps est aplati (quoique moins que chez la plupart des Goniasteridae), les bras larges, convexes et verruqueux (les plaques squelettiques forment des reliefs bien marqués), mais plats sur la face inférieure. Les épines ambulacraires sont courtes, unies en leur base. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été largement revu (et déplacé) par Mah 2017[3].
-Selon World Register of Marine Species                               (22 novembre 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été largement revu (et déplacé) par Mah 2017.
+Selon World Register of Marine Species                               (22 novembre 2014) :
 Ferdina flavescens Gray, 1840 -- Mascareignes
 Ferdina mena Mah, 2017 -- Madagascar et région
 Ferdina sadhaensis Marsh &amp; Campbell, 1991 -- Oman et région
@@ -579,9 +595,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ferdina Gray, 1840[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ferdina Gray, 1840.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, J.E. (1840) XXXII. A synopsis of the genera and species of the class Hypostoma (Asterias, Linnaeus), Annals of the Magazine of Natural History. 6: 275-290. lire.</t>
         </is>
